--- a/server/translationLost.xlsx
+++ b/server/translationLost.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B55"/>
+  <dimension ref="A1:B72"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -537,7 +537,7 @@
         <v>请选择</v>
       </c>
       <c r="B20" t="str">
-        <v/>
+        <v>ABCDE123</v>
       </c>
     </row>
     <row r="21">
@@ -545,7 +545,7 @@
         <v>切换语言</v>
       </c>
       <c r="B21" t="str">
-        <v/>
+        <v>ABCDE124</v>
       </c>
     </row>
     <row r="22">
@@ -553,7 +553,7 @@
         <v>中文</v>
       </c>
       <c r="B22" t="str">
-        <v/>
+        <v>ABCDE125</v>
       </c>
     </row>
     <row r="23">
@@ -561,7 +561,7 @@
         <v>返回来自test内部子组件的</v>
       </c>
       <c r="B23" t="str">
-        <v/>
+        <v>ABCDE126</v>
       </c>
     </row>
     <row r="24">
@@ -569,7 +569,7 @@
         <v>合并单元格1</v>
       </c>
       <c r="B24" t="str">
-        <v/>
+        <v>ABCDE127</v>
       </c>
     </row>
     <row r="25">
@@ -577,7 +577,7 @@
         <v>合并单元格2</v>
       </c>
       <c r="B25" t="str">
-        <v/>
+        <v>ABCDE128</v>
       </c>
     </row>
     <row r="26">
@@ -585,7 +585,7 @@
         <v>合并单元格3</v>
       </c>
       <c r="B26" t="str">
-        <v/>
+        <v>ABCDE129</v>
       </c>
     </row>
     <row r="27">
@@ -593,7 +593,7 @@
         <v>日期</v>
       </c>
       <c r="B27" t="str">
-        <v/>
+        <v>ABCDE130</v>
       </c>
     </row>
     <row r="28">
@@ -601,7 +601,7 @@
         <v>兴趣</v>
       </c>
       <c r="B28" t="str">
-        <v/>
+        <v>ABCDE131</v>
       </c>
     </row>
     <row r="29">
@@ -609,7 +609,7 @@
         <v>地址</v>
       </c>
       <c r="B29" t="str">
-        <v/>
+        <v>ABCDE132</v>
       </c>
     </row>
     <row r="30">
@@ -617,7 +617,7 @@
         <v>姓名</v>
       </c>
       <c r="B30" t="str">
-        <v/>
+        <v>ABCDE133</v>
       </c>
     </row>
     <row r="31">
@@ -625,7 +625,7 @@
         <v>地址1</v>
       </c>
       <c r="B31" t="str">
-        <v/>
+        <v>ABCDE134</v>
       </c>
     </row>
     <row r="32">
@@ -633,7 +633,7 @@
         <v>地址2</v>
       </c>
       <c r="B32" t="str">
-        <v/>
+        <v>ABCDE135</v>
       </c>
     </row>
     <row r="33">
@@ -641,7 +641,7 @@
         <v>性别</v>
       </c>
       <c r="B33" t="str">
-        <v/>
+        <v>ABCDE136</v>
       </c>
     </row>
     <row r="34">
@@ -649,7 +649,7 @@
         <v>年纪</v>
       </c>
       <c r="B34" t="str">
-        <v/>
+        <v>ABCDE137</v>
       </c>
     </row>
     <row r="35">
@@ -657,7 +657,7 @@
         <v>王小虎</v>
       </c>
       <c r="B35" t="str">
-        <v/>
+        <v>ABCDE138</v>
       </c>
     </row>
     <row r="36">
@@ -665,7 +665,7 @@
         <v>学生</v>
       </c>
       <c r="B36" t="str">
-        <v/>
+        <v>ABCDE139</v>
       </c>
     </row>
     <row r="37">
@@ -673,7 +673,7 @@
         <v>游戏</v>
       </c>
       <c r="B37" t="str">
-        <v/>
+        <v>ABCDE140</v>
       </c>
     </row>
     <row r="38">
@@ -681,7 +681,7 @@
         <v>合并单元格1-1</v>
       </c>
       <c r="B38" t="str">
-        <v/>
+        <v>ABCDE141</v>
       </c>
     </row>
     <row r="39">
@@ -689,7 +689,7 @@
         <v>合并单元格2-1</v>
       </c>
       <c r="B39" t="str">
-        <v/>
+        <v>ABCDE142</v>
       </c>
     </row>
     <row r="40">
@@ -697,7 +697,7 @@
         <v>合并单元格3-1</v>
       </c>
       <c r="B40" t="str">
-        <v/>
+        <v>ABCDE143</v>
       </c>
     </row>
     <row r="41">
@@ -705,7 +705,7 @@
         <v>上海市普陀区金沙江路 1518 弄</v>
       </c>
       <c r="B41" t="str">
-        <v/>
+        <v>ABCDE144</v>
       </c>
     </row>
     <row r="42">
@@ -713,7 +713,7 @@
         <v>上海市普陀区金沙江路 1519 弄</v>
       </c>
       <c r="B42" t="str">
-        <v/>
+        <v>ABCDE145</v>
       </c>
     </row>
     <row r="43">
@@ -721,7 +721,7 @@
         <v>合并单元格3-2</v>
       </c>
       <c r="B43" t="str">
-        <v/>
+        <v>ABCDE146</v>
       </c>
     </row>
     <row r="44">
@@ -729,7 +729,7 @@
         <v>合并单元格1-2</v>
       </c>
       <c r="B44" t="str">
-        <v/>
+        <v>ABCDE147</v>
       </c>
     </row>
     <row r="45">
@@ -737,7 +737,7 @@
         <v>合并单元格2-2</v>
       </c>
       <c r="B45" t="str">
-        <v/>
+        <v>ABCDE148</v>
       </c>
     </row>
     <row r="46">
@@ -745,7 +745,7 @@
         <v>合并单元格2-3</v>
       </c>
       <c r="B46" t="str">
-        <v/>
+        <v>ABCDE149</v>
       </c>
     </row>
     <row r="47">
@@ -753,7 +753,7 @@
         <v>合并单元格1-3</v>
       </c>
       <c r="B47" t="str">
-        <v/>
+        <v>ABCDE150</v>
       </c>
     </row>
     <row r="48">
@@ -761,7 +761,7 @@
         <v>合并单元格2-4</v>
       </c>
       <c r="B48" t="str">
-        <v/>
+        <v>ABCDE151</v>
       </c>
     </row>
     <row r="49">
@@ -769,7 +769,7 @@
         <v>合并单元格3-3</v>
       </c>
       <c r="B49" t="str">
-        <v/>
+        <v>ABCDE152</v>
       </c>
     </row>
     <row r="50">
@@ -777,7 +777,7 @@
         <v>上海市普陀区金沙江路 1517 弄</v>
       </c>
       <c r="B50" t="str">
-        <v/>
+        <v>ABCDE153</v>
       </c>
     </row>
     <row r="51">
@@ -785,7 +785,7 @@
         <v>王小虎2</v>
       </c>
       <c r="B51" t="str">
-        <v/>
+        <v>ABCDE154</v>
       </c>
     </row>
     <row r="52">
@@ -793,7 +793,7 @@
         <v>合并单元格2-5</v>
       </c>
       <c r="B52" t="str">
-        <v/>
+        <v>ABCDE155</v>
       </c>
     </row>
     <row r="53">
@@ -801,7 +801,7 @@
         <v>上海市普陀区金沙江路 1516 弄</v>
       </c>
       <c r="B53" t="str">
-        <v/>
+        <v>ABCDE156</v>
       </c>
     </row>
     <row r="54">
@@ -809,7 +809,7 @@
         <v>合并单元格1-4</v>
       </c>
       <c r="B54" t="str">
-        <v/>
+        <v>ABCDE157</v>
       </c>
     </row>
     <row r="55">
@@ -817,12 +817,148 @@
         <v>你好</v>
       </c>
       <c r="B55" t="str">
-        <v/>
+        <v>ABCDE158</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>这是一段内容这是一段内容确定删除吗</v>
+      </c>
+      <c r="B56" t="str">
+        <v>ABCDE159</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>取消</v>
+      </c>
+      <c r="B57" t="str">
+        <v>ABCDE160</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>确定</v>
+      </c>
+      <c r="B58" t="str">
+        <v>ABCDE161</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>删除</v>
+      </c>
+      <c r="B59" t="str">
+        <v>ABCDE162</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>黄色</v>
+      </c>
+      <c r="B60" t="str">
+        <v>ABCDE163</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>十八</v>
+      </c>
+      <c r="B61" t="str">
+        <v>ABCDE164</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>姓李</v>
+      </c>
+      <c r="B62" t="str">
+        <v>ABCDE165</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>黄金糕</v>
+      </c>
+      <c r="B63" t="str">
+        <v>ABCDE166</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>双皮奶</v>
+      </c>
+      <c r="B64" t="str">
+        <v>ABCDE167</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>蚵仔煎</v>
+      </c>
+      <c r="B65" t="str">
+        <v>ABCDE168</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>龙须面</v>
+      </c>
+      <c r="B66" t="str">
+        <v>ABCDE169</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>北京烤鸭</v>
+      </c>
+      <c r="B67" t="str">
+        <v>ABCDE170</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>选项1</v>
+      </c>
+      <c r="B68" t="str">
+        <v>ABCDE171</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>选项2</v>
+      </c>
+      <c r="B69" t="str">
+        <v>ABCDE172</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>选项3</v>
+      </c>
+      <c r="B70" t="str">
+        <v>ABCDE173</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>选项4</v>
+      </c>
+      <c r="B71" t="str">
+        <v>ABCDE174</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>选项5</v>
+      </c>
+      <c r="B72" t="str">
+        <v>ABCDE175</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B55"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B72"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/server/translationLost.xlsx
+++ b/server/translationLost.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B72"/>
+  <dimension ref="A1:B76"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -956,9 +956,41 @@
         <v>ABCDE175</v>
       </c>
     </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>黄色l</v>
+      </c>
+      <c r="B73" t="str">
+        <v>ABCDE176</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>十八a</v>
+      </c>
+      <c r="B74" t="str">
+        <v>ABCDE177</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>黄色</v>
+      </c>
+      <c r="B75" t="str">
+        <v>ABCDE178</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>十八</v>
+      </c>
+      <c r="B76" t="str">
+        <v>ABCDE179</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B72"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B76"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/server/translationLost.xlsx
+++ b/server/translationLost.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B76"/>
+  <dimension ref="A1:B77"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -988,9 +988,17 @@
         <v>ABCDE179</v>
       </c>
     </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>黄金糕', '双皮奶', '蚵仔煎', '龙须面', '北京烤鸭</v>
+      </c>
+      <c r="B77" t="str">
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B76"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B77"/>
   </ignoredErrors>
 </worksheet>
 </file>